--- a/data/full_data/omi clear.xlsx
+++ b/data/full_data/omi clear.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>CCP</t>
   </si>
@@ -104,16 +104,19 @@
     <t>OMI CLEAR</t>
   </si>
   <si>
+    <t>Q4-2015</t>
+  </si>
+  <si>
+    <t>aggregated</t>
+  </si>
+  <si>
+    <t>For additional information regarding participants commitment to replenish the default fund, please see OMIClear Instruction B07-2014.</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
     <t>Q4-2016</t>
-  </si>
-  <si>
-    <t>aggregated</t>
-  </si>
-  <si>
-    <t>For additional information regarding participants commitment to replenish the default fund, please see OMIClear Instruction B07-2014.</t>
-  </si>
-  <si>
-    <t>n.a.</t>
   </si>
   <si>
     <t>Q1-2017</t>
@@ -489,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51146453.95</v>
+        <v>27081905.04</v>
       </c>
       <c r="I2" t="n">
-        <v>51146453.95</v>
+        <v>27081905.04</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8630388.939999999</v>
+        <v>8525718</v>
       </c>
       <c r="L2" t="n">
-        <v>51146453.95</v>
+        <v>27081905.04</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -627,49 +630,49 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52488349.11</v>
+        <v>39333212.3</v>
       </c>
       <c r="P2" t="n">
-        <v>42859414.62</v>
+        <v>26468203.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>72354799.42999999</v>
+        <v>40506167.31</v>
       </c>
       <c r="R2" t="n">
-        <v>96183251.66999999</v>
+        <v>63336290.38</v>
       </c>
       <c r="S2" t="n">
-        <v>219446812.53</v>
+        <v>191774701.12</v>
       </c>
       <c r="T2" t="n">
-        <v>219446812.53</v>
+        <v>191774701.12</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W2" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>10760036.6</v>
+        <v>25353291.04</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>877848509.2399999</v>
+        <v>700518106.15</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -695,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>47621912.91</v>
+        <v>51146453.95</v>
       </c>
       <c r="I3" t="n">
-        <v>47621912.91</v>
+        <v>51146453.95</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -707,7 +710,7 @@
         <v>8630388.939999999</v>
       </c>
       <c r="L3" t="n">
-        <v>47621912.91</v>
+        <v>51146453.95</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -719,19 +722,19 @@
         <v>52488349.11</v>
       </c>
       <c r="P3" t="n">
-        <v>44060509.43</v>
+        <v>42859414.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>76337904.47</v>
+        <v>72354799.42999999</v>
       </c>
       <c r="R3" t="n">
-        <v>97346573.84</v>
+        <v>96183251.66999999</v>
       </c>
       <c r="S3" t="n">
-        <v>199335852.21</v>
+        <v>219446812.53</v>
       </c>
       <c r="T3" t="n">
-        <v>199335852.21</v>
+        <v>219446812.53</v>
       </c>
       <c r="U3" t="n">
         <v>4</v>
@@ -743,7 +746,7 @@
         <v>32</v>
       </c>
       <c r="X3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="n">
         <v>4</v>
@@ -752,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>5989650.57</v>
+        <v>10760036.6</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>799434436.7099999</v>
+        <v>877848509.2399999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -784,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47186200.06</v>
+        <v>47621912.91</v>
       </c>
       <c r="I4" t="n">
-        <v>47186200.06</v>
+        <v>47621912.91</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8914324.85</v>
+        <v>8630388.939999999</v>
       </c>
       <c r="L4" t="n">
-        <v>47186200.06</v>
+        <v>47621912.91</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
@@ -805,34 +808,34 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>54913420.38</v>
+        <v>52488349.11</v>
       </c>
       <c r="P4" t="n">
-        <v>41452173.96</v>
+        <v>44060509.43</v>
       </c>
       <c r="Q4" t="n">
-        <v>64068766.33000001</v>
+        <v>76337904.47</v>
       </c>
       <c r="R4" t="n">
-        <v>82814140.05</v>
+        <v>97346573.84</v>
       </c>
       <c r="S4" t="n">
-        <v>170854125.69</v>
+        <v>199335852.21</v>
       </c>
       <c r="T4" t="n">
-        <v>170854125.69</v>
+        <v>199335852.21</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W4" t="s">
         <v>32</v>
       </c>
       <c r="X4" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -841,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>5183929.69</v>
+        <v>5989650.57</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>652679800.4100001</v>
+        <v>799434436.7099999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -873,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>53576822.39</v>
+        <v>47186200.06</v>
       </c>
       <c r="I5" t="n">
-        <v>53576822.39</v>
+        <v>47186200.06</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -885,7 +888,7 @@
         <v>8914324.85</v>
       </c>
       <c r="L5" t="n">
-        <v>53576822.39</v>
+        <v>47186200.06</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -894,34 +897,34 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>55692291.22</v>
+        <v>54913420.38</v>
       </c>
       <c r="P5" t="n">
-        <v>43106930.6</v>
+        <v>41452173.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>74608191.75999999</v>
+        <v>64068766.33000001</v>
       </c>
       <c r="R5" t="n">
-        <v>99567750.51000002</v>
+        <v>82814140.05</v>
       </c>
       <c r="S5" t="n">
-        <v>183503090.75</v>
+        <v>170854125.69</v>
       </c>
       <c r="T5" t="n">
-        <v>183503090.75</v>
+        <v>170854125.69</v>
       </c>
       <c r="U5" t="n">
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W5" t="s">
         <v>32</v>
       </c>
       <c r="X5" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="Y5" t="n">
         <v>4</v>
@@ -930,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>4028434.82</v>
+        <v>5183929.69</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>672536249.73</v>
+        <v>652679800.4100001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -962,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>54345021.05</v>
+        <v>53576822.39</v>
       </c>
       <c r="I6" t="n">
-        <v>54345021.05</v>
+        <v>53576822.39</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8460368.85</v>
+        <v>8914324.85</v>
       </c>
       <c r="L6" t="n">
-        <v>54345021.05</v>
+        <v>53576822.39</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -986,19 +989,19 @@
         <v>55692291.22</v>
       </c>
       <c r="P6" t="n">
-        <v>42778501.51</v>
+        <v>43106930.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>90661608.09999998</v>
+        <v>74608191.75999999</v>
       </c>
       <c r="R6" t="n">
-        <v>113319146.44</v>
+        <v>99567750.51000002</v>
       </c>
       <c r="S6" t="n">
-        <v>190646197.11</v>
+        <v>183503090.75</v>
       </c>
       <c r="T6" t="n">
-        <v>190646197.11</v>
+        <v>183503090.75</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -1010,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
@@ -1019,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>5292849.09</v>
+        <v>4028434.82</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>740244318.36</v>
+        <v>672536249.73</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1051,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50754864.5</v>
+        <v>54345021.05</v>
       </c>
       <c r="I7" t="n">
-        <v>50754864.5</v>
+        <v>54345021.05</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1063,7 +1066,7 @@
         <v>8460368.85</v>
       </c>
       <c r="L7" t="n">
-        <v>50754864.5</v>
+        <v>54345021.05</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>
@@ -1075,19 +1078,19 @@
         <v>55692291.22</v>
       </c>
       <c r="P7" t="n">
-        <v>44476304.14</v>
+        <v>42778501.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>85032780.61</v>
+        <v>90661608.09999998</v>
       </c>
       <c r="R7" t="n">
-        <v>104867096.77</v>
+        <v>113319146.44</v>
       </c>
       <c r="S7" t="n">
-        <v>193277608.09</v>
+        <v>190646197.11</v>
       </c>
       <c r="T7" t="n">
-        <v>193277608.09</v>
+        <v>190646197.11</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
@@ -1099,7 +1102,7 @@
         <v>32</v>
       </c>
       <c r="X7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="n">
         <v>4</v>
@@ -1108,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>4580161.39</v>
+        <v>5292849.09</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>776854908.6899999</v>
+        <v>740244318.36</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1140,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44493767.98</v>
+        <v>50754864.5</v>
       </c>
       <c r="I8" t="n">
-        <v>44493767.98</v>
+        <v>50754864.5</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>8525718</v>
+        <v>8460368.85</v>
       </c>
       <c r="L8" t="n">
-        <v>44493767.98</v>
+        <v>50754864.5</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
@@ -1161,25 +1164,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>47747745.23</v>
+        <v>55692291.22</v>
       </c>
       <c r="P8" t="n">
-        <v>27649761.9</v>
+        <v>44476304.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>55389146.32</v>
+        <v>85032780.61</v>
       </c>
       <c r="R8" t="n">
-        <v>85843757.84</v>
+        <v>104867096.77</v>
       </c>
       <c r="S8" t="n">
-        <v>217524082.94</v>
+        <v>193277608.09</v>
       </c>
       <c r="T8" t="n">
-        <v>217524082.94</v>
+        <v>193277608.09</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1188,22 +1191,22 @@
         <v>32</v>
       </c>
       <c r="X8" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>12630995.4</v>
+        <v>4580161.39</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>855464115.3000002</v>
+        <v>776854908.6899999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1229,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>46405850.09</v>
+        <v>44493767.98</v>
       </c>
       <c r="I9" t="n">
-        <v>46405850.09</v>
+        <v>44493767.98</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1241,7 +1244,7 @@
         <v>8525718</v>
       </c>
       <c r="L9" t="n">
-        <v>46405850.09</v>
+        <v>44493767.98</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
@@ -1250,25 +1253,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>50277377.15</v>
+        <v>47747745.23</v>
       </c>
       <c r="P9" t="n">
-        <v>32386192.27</v>
+        <v>27649761.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>65026279.88999999</v>
+        <v>55389146.32</v>
       </c>
       <c r="R9" t="n">
-        <v>96663147.52</v>
+        <v>85843757.84</v>
       </c>
       <c r="S9" t="n">
-        <v>226310309.4</v>
+        <v>217524082.94</v>
       </c>
       <c r="T9" t="n">
-        <v>226310309.4</v>
+        <v>217524082.94</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
@@ -1277,22 +1280,22 @@
         <v>32</v>
       </c>
       <c r="X9" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>11557099.18</v>
+        <v>12630995.4</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>940939994.5928</v>
+        <v>855464115.3000002</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1318,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44473268.59999999</v>
+        <v>46405850.09</v>
       </c>
       <c r="I10" t="n">
-        <v>44473268.59999999</v>
+        <v>46405850.09</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8460368.85</v>
+        <v>8525718</v>
       </c>
       <c r="L10" t="n">
-        <v>44473268.59999999</v>
+        <v>46405850.09</v>
       </c>
       <c r="M10" t="s">
         <v>31</v>
@@ -1339,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>55692291.22</v>
+        <v>50277377.15</v>
       </c>
       <c r="P10" t="n">
-        <v>42157879.65</v>
+        <v>32386192.27</v>
       </c>
       <c r="Q10" t="n">
-        <v>90694591.3</v>
+        <v>65026279.88999999</v>
       </c>
       <c r="R10" t="n">
-        <v>115871902.83</v>
+        <v>96663147.52</v>
       </c>
       <c r="S10" t="n">
-        <v>193768073.01</v>
+        <v>226310309.4</v>
       </c>
       <c r="T10" t="n">
-        <v>193768073.01</v>
+        <v>226310309.4</v>
       </c>
       <c r="U10" t="n">
         <v>4</v>
@@ -1366,7 +1369,7 @@
         <v>32</v>
       </c>
       <c r="X10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="n">
         <v>4</v>
@@ -1375,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>6279412.75</v>
+        <v>11557099.18</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>732377675.2800001</v>
+        <v>940939994.5928</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1407,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>48940315.55</v>
+        <v>44473268.59999999</v>
       </c>
       <c r="I11" t="n">
-        <v>48940315.55</v>
+        <v>44473268.59999999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8525718</v>
+        <v>8460368.85</v>
       </c>
       <c r="L11" t="n">
-        <v>48940315.55</v>
+        <v>44473268.59999999</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -1428,22 +1431,22 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50277377.15</v>
+        <v>55692291.22</v>
       </c>
       <c r="P11" t="n">
-        <v>37310471.31</v>
+        <v>42157879.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>70548651.66</v>
+        <v>90694591.3</v>
       </c>
       <c r="R11" t="n">
-        <v>93780088.94</v>
+        <v>115871902.83</v>
       </c>
       <c r="S11" t="n">
-        <v>228775048.58</v>
+        <v>193768073.01</v>
       </c>
       <c r="T11" t="n">
-        <v>228775048.58</v>
+        <v>193768073.01</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
@@ -1455,21 +1458,110 @@
         <v>32</v>
       </c>
       <c r="X11" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6279412.75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>732377675.2800001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1941895.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>48940315.55</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48940315.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8525718</v>
+      </c>
+      <c r="L12" t="n">
+        <v>48940315.55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>50277377.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>37310471.31</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>70548651.66</v>
+      </c>
+      <c r="R12" t="n">
+        <v>93780088.94</v>
+      </c>
+      <c r="S12" t="n">
+        <v>228775048.58</v>
+      </c>
+      <c r="T12" t="n">
+        <v>228775048.58</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="n">
         <v>73</v>
       </c>
-      <c r="Y11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="Y12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>6751611.58</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>874695555.7999998</v>
       </c>
     </row>
